--- a/Formatos/PERMISOS FINANCIEROS.xlsx
+++ b/Formatos/PERMISOS FINANCIEROS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff5f48e2f83c1889/Proyectos/Gestion_Permisos_RHELEC/Formatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff5f48e2f83c1889/Proyectos/UI Permisos RHELEC/Formatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{68EC7F55-4142-4698-8BD5-6C2741135117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02A56695-CCDB-4F0A-AC96-6E4E8180622E}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{68EC7F55-4142-4698-8BD5-6C2741135117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A03CE77D-09B5-40D4-A4CA-677A674A767B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -793,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:F1001"/>
+  <dimension ref="D1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -941,53 +941,45 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="13"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="26" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
     <row r="28" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
+      <c r="D28" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
+    <row r="29" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1957,8 +1949,6 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E14:F14"/>
